--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_19_40.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_19_40.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3906925.780200954</v>
+        <v>4009723.200268609</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>243165.4780498525</v>
+        <v>416855.1052283187</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7197832.612378563</v>
+        <v>7163932.882114604</v>
       </c>
     </row>
     <row r="11">
@@ -656,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>332.5442632474845</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -665,19 +667,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292587</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -716,7 +718,7 @@
         <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>73.27228712442373</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -753,10 +755,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851113</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247742</v>
+        <v>18.817218682479</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,10 +785,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734097636</v>
       </c>
       <c r="S3" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T3" t="n">
         <v>190.7165703189231</v>
@@ -820,22 +822,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9274752778995872</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983806</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,16 +864,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>98.89439197835803</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -880,10 +882,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -908,7 +910,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H5" t="n">
         <v>294.6077643873205</v>
@@ -947,22 +949,22 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>77.42639794035922</v>
+        <v>80.998936027754</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1060,19 +1062,19 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>98.11258468995953</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,7 +1101,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>189.7690253314419</v>
@@ -1114,10 +1116,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>31.08469670319108</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1130,19 +1132,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>228.8563935857031</v>
       </c>
       <c r="F8" t="n">
-        <v>323.997065970869</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
         <v>410.9217256534534</v>
@@ -1151,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,16 +1186,16 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -1227,10 +1229,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I9" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,10 +1259,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S9" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T9" t="n">
         <v>190.7165703189231</v>
@@ -1291,25 +1293,25 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,28 +1338,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004732</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>163.2362325904172</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>253.0207069265288</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1424,7 +1426,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1525,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -1537,10 +1539,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>37.17792077063358</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
@@ -1573,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>58.47559664514451</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1585,16 +1587,16 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1655,10 +1657,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881286</v>
@@ -1783,7 +1785,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1819,19 +1821,19 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>75.00788511618036</v>
+        <v>217.8886059122779</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -2005,19 +2007,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2056,13 +2058,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>240.5320234084492</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2081,7 +2083,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -2248,7 +2250,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>78.34975387299224</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
@@ -2299,10 +2301,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>219.4517041866519</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2366,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2482,7 +2484,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2491,10 +2493,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,13 +2523,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>71.79687029691078</v>
+        <v>148.8796904206638</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2542,7 +2544,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2552,7 +2554,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634794</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -2603,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2615,7 +2617,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>349.2409687174139</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
@@ -2713,13 +2715,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>9.146142788179874</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2731,7 +2733,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2767,7 +2769,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>238.4715729346776</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2779,7 +2781,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2840,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2858,7 +2860,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="30">
@@ -2947,28 +2949,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>155.5473326898976</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>142.9621736065881</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>124.3308255261726</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>122.1493151545295</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>121.1364005308915</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>141.2394908002291</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>116.0100653541842</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>56.98118882652581</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2997,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>42.09059921808113</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>156.7416385096049</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>193.1208028352486</v>
+        <v>16.77337404802748</v>
       </c>
       <c r="U31" t="n">
-        <v>261.8998268972044</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>227.8529958317883</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>262.2383508445513</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>201.4250078969974</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>194.3000058600551</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3077,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3095,7 +3097,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -3184,28 +3186,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>155.5473326898976</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>142.9621736065881</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>124.3308255261726</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>122.1493151545295</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>121.1364005308915</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>141.2394908002291</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>116.0100653541842</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>56.98118882652581</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3234,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.09059921808195</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>156.7416385096038</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>193.1208028352486</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>261.8998268972044</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>227.8529958317883</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>262.2383508445513</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>201.4250078969974</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>194.3000058600551</v>
+        <v>174.3163612303118</v>
       </c>
     </row>
     <row r="35">
@@ -3263,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3314,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695619</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3421,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>155.5473326898976</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>142.9621736065881</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>124.3308255261726</v>
+        <v>1.619672595757198</v>
       </c>
       <c r="E37" t="n">
-        <v>122.1493151545295</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>121.1364005308915</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>141.2394908002291</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>116.0100653541841</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652581</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,28 +3471,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.09059921808195</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>156.7416385096049</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>193.1208028352486</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>261.8998268972048</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
-        <v>227.8529958317883</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>262.2383508445513</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>201.4250078969974</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>194.3000058600551</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3551,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3658,28 +3660,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>155.5473326898976</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>142.9621736065882</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>124.3308255261727</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>122.1493151545295</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>121.1364005308916</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>141.2394908002292</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>116.0100653541842</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652584</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,28 +3708,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.09059921808198</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>156.7416385096049</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>193.1208028352486</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>261.8998268972044</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>227.8529958317883</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>262.2383508445513</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>201.4250078969975</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>194.3000058600551</v>
+        <v>209.5844008505283</v>
       </c>
     </row>
     <row r="41">
@@ -3788,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3895,28 +3897,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>155.5473326898976</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>142.9621736065881</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>124.3308255261726</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>122.1493151545295</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>121.1364005308915</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>141.2394908002291</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>116.0100653541841</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652581</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,28 +3945,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808195</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>156.7416385096049</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>193.1208028352486</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>261.8998268972046</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
-        <v>227.8529958317883</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>262.2383508445513</v>
+        <v>248.814236965211</v>
       </c>
       <c r="X43" t="n">
-        <v>201.4250078969974</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>194.3000058600551</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -4025,13 +4027,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U44" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -4135,25 +4137,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>24.8326660635311</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>71.76895293959856</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4201,7 +4203,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1303.529887077737</v>
+        <v>1178.820931986406</v>
       </c>
       <c r="C2" t="n">
-        <v>934.5673701373257</v>
+        <v>809.8584150459945</v>
       </c>
       <c r="D2" t="n">
-        <v>934.5673701373257</v>
+        <v>809.8584150459945</v>
       </c>
       <c r="E2" t="n">
-        <v>934.5673701373257</v>
+        <v>424.0701624477503</v>
       </c>
       <c r="F2" t="n">
-        <v>523.5814653477182</v>
+        <v>417.1246616985468</v>
       </c>
       <c r="G2" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839474</v>
       </c>
       <c r="H2" t="n">
-        <v>108.5090151927147</v>
+        <v>108.5090151927146</v>
       </c>
       <c r="I2" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912088</v>
+        <v>255.391247391209</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.58875505237</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520487</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U2" t="n">
-        <v>2755.806928794324</v>
+        <v>2755.806928794326</v>
       </c>
       <c r="V2" t="n">
-        <v>2755.806928794324</v>
+        <v>2681.794517557534</v>
       </c>
       <c r="W2" t="n">
-        <v>2403.038273524209</v>
+        <v>2329.02586228742</v>
       </c>
       <c r="X2" t="n">
-        <v>2029.572515263129</v>
+        <v>1955.56010402634</v>
       </c>
       <c r="Y2" t="n">
-        <v>1639.433183287318</v>
+        <v>1565.420772050528</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811102</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999832</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387319</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332764</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601614</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927795</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064709</v>
       </c>
       <c r="I3" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228009</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031482</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158137</v>
       </c>
       <c r="M3" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992585</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.91239341064</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886743</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533343</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125858</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619338</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297194</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431609</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199867</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471665</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.519490266132</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501178</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>333.710820256795</v>
+        <v>1091.613680441807</v>
       </c>
       <c r="C4" t="n">
-        <v>164.7746373288881</v>
+        <v>922.6774975139006</v>
       </c>
       <c r="D4" t="n">
-        <v>163.837793613838</v>
+        <v>772.5608581015648</v>
       </c>
       <c r="E4" t="n">
-        <v>163.837793613838</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="F4" t="n">
-        <v>163.837793613838</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G4" t="n">
-        <v>163.837793613838</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H4" t="n">
-        <v>163.837793613838</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I4" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J4" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791191</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279955</v>
       </c>
       <c r="L4" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764917</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760409</v>
       </c>
       <c r="N4" t="n">
-        <v>1317.747152581905</v>
+        <v>1317.747152581906</v>
       </c>
       <c r="O4" t="n">
         <v>1617.076751502319</v>
       </c>
       <c r="P4" t="n">
-        <v>1849.684251935978</v>
+        <v>1849.684251935979</v>
       </c>
       <c r="Q4" t="n">
         <v>1927.294548088493</v>
       </c>
       <c r="R4" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S4" t="n">
-        <v>1837.464090846021</v>
+        <v>1735.60866391532</v>
       </c>
       <c r="T4" t="n">
-        <v>1615.697475415547</v>
+        <v>1735.60866391532</v>
       </c>
       <c r="U4" t="n">
-        <v>1326.59460854119</v>
+        <v>1635.715338684655</v>
       </c>
       <c r="V4" t="n">
-        <v>1071.910120335303</v>
+        <v>1381.030850478768</v>
       </c>
       <c r="W4" t="n">
-        <v>782.4929502983425</v>
+        <v>1091.613680441807</v>
       </c>
       <c r="X4" t="n">
-        <v>554.5033994003252</v>
+        <v>1091.613680441807</v>
       </c>
       <c r="Y4" t="n">
-        <v>333.710820256795</v>
+        <v>1091.613680441807</v>
       </c>
     </row>
     <row r="5">
@@ -4541,19 +4543,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1986.901740067214</v>
+        <v>1582.86133602681</v>
       </c>
       <c r="C5" t="n">
-        <v>1617.939223126803</v>
+        <v>1213.898819086399</v>
       </c>
       <c r="D5" t="n">
-        <v>1617.939223126803</v>
+        <v>1213.898819086399</v>
       </c>
       <c r="E5" t="n">
-        <v>1232.150970528558</v>
+        <v>828.1105664881545</v>
       </c>
       <c r="F5" t="n">
-        <v>821.1650657389509</v>
+        <v>417.1246616985469</v>
       </c>
       <c r="G5" t="n">
         <v>406.0926155839475</v>
@@ -4562,55 +4564,55 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912105</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810571</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329466</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001391</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060173</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.52802693951</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296688</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.58875505237</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136267</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3215.315153136267</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U5" t="n">
-        <v>3215.315153136267</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V5" t="n">
-        <v>3215.315153136267</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W5" t="n">
-        <v>3137.106670368228</v>
+        <v>2342.926934352012</v>
       </c>
       <c r="X5" t="n">
-        <v>2763.640912107148</v>
+        <v>1969.461176090932</v>
       </c>
       <c r="Y5" t="n">
-        <v>2373.501580131336</v>
+        <v>1969.461176090932</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811095</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999825</v>
       </c>
       <c r="D6" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387314</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332758</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601609</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927781</v>
+        <v>176.0213023927789</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064583</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228011</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K6" t="n">
-        <v>398.453584903148</v>
+        <v>398.4535849031484</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158135</v>
+        <v>765.1517452158141</v>
       </c>
       <c r="M6" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125858</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619338</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431609</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501178</v>
       </c>
     </row>
     <row r="7">
@@ -4699,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>409.1586012949293</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="C7" t="n">
-        <v>409.1586012949293</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="D7" t="n">
-        <v>409.1586012949293</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E7" t="n">
-        <v>409.1586012949293</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F7" t="n">
-        <v>310.0549803959803</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G7" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H7" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J7" t="n">
         <v>111.634748879119</v>
@@ -4747,28 +4749,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S7" t="n">
-        <v>1645.778206672847</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T7" t="n">
-        <v>1424.011591242373</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U7" t="n">
-        <v>1134.908724368016</v>
+        <v>1224.739181610489</v>
       </c>
       <c r="V7" t="n">
-        <v>880.2242361621296</v>
+        <v>970.0546934046018</v>
       </c>
       <c r="W7" t="n">
-        <v>590.8070661251691</v>
+        <v>938.656009866025</v>
       </c>
       <c r="X7" t="n">
-        <v>590.8070661251691</v>
+        <v>710.6664589680076</v>
       </c>
       <c r="Y7" t="n">
-        <v>590.8070661251691</v>
+        <v>710.6664589680076</v>
       </c>
     </row>
     <row r="8">
@@ -4778,16 +4780,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1605.601998493313</v>
+        <v>1892.963660013481</v>
       </c>
       <c r="C8" t="n">
-        <v>1236.639481552901</v>
+        <v>1524.001143073069</v>
       </c>
       <c r="D8" t="n">
-        <v>1236.639481552901</v>
+        <v>1165.735444466319</v>
       </c>
       <c r="E8" t="n">
-        <v>850.8512289546566</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F8" t="n">
         <v>523.5814653477182</v>
@@ -4799,7 +4801,7 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J8" t="n">
         <v>255.3912473912087</v>
@@ -4808,46 +4810,46 @@
         <v>589.210621081055</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M8" t="n">
         <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296688</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.58875505237</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136267</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520489</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U8" t="n">
-        <v>2755.806928794326</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="V8" t="n">
-        <v>2755.806928794326</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="W8" t="n">
-        <v>2755.806928794326</v>
+        <v>2656.568750250372</v>
       </c>
       <c r="X8" t="n">
-        <v>2382.341170533246</v>
+        <v>2283.102991989293</v>
       </c>
       <c r="Y8" t="n">
-        <v>1992.201838557434</v>
+        <v>1892.963660013481</v>
       </c>
     </row>
     <row r="9">
@@ -4857,46 +4859,46 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
         <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228009</v>
+        <v>160.1893859228005</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158137</v>
+        <v>765.1517452158129</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
         <v>2407.411984886741</v>
@@ -4914,7 +4916,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V9" t="n">
         <v>1779.608347199865</v>
@@ -4923,10 +4925,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="10">
@@ -4936,43 +4938,43 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>624.6477645191717</v>
+        <v>679.6952191369613</v>
       </c>
       <c r="C10" t="n">
-        <v>624.6477645191717</v>
+        <v>510.7590362090544</v>
       </c>
       <c r="D10" t="n">
-        <v>624.6477645191717</v>
+        <v>360.6423967967187</v>
       </c>
       <c r="E10" t="n">
-        <v>624.6477645191717</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="F10" t="n">
-        <v>477.7578170212613</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="G10" t="n">
-        <v>310.0549803959803</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H10" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J10" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279955</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L10" t="n">
-        <v>632.1817302764916</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760407</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N10" t="n">
-        <v>1317.747152581906</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O10" t="n">
         <v>1617.076751502319</v>
@@ -4981,31 +4983,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q10" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R10" t="n">
-        <v>1837.464090846021</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="S10" t="n">
-        <v>1645.778206672848</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="T10" t="n">
-        <v>1424.011591242373</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="U10" t="n">
-        <v>1134.908724368017</v>
+        <v>1672.579007421356</v>
       </c>
       <c r="V10" t="n">
-        <v>880.2242361621301</v>
+        <v>1417.894519215469</v>
       </c>
       <c r="W10" t="n">
-        <v>624.6477645191717</v>
+        <v>1128.477349178509</v>
       </c>
       <c r="X10" t="n">
-        <v>624.6477645191717</v>
+        <v>900.4877982804915</v>
       </c>
       <c r="Y10" t="n">
-        <v>624.6477645191717</v>
+        <v>679.6952191369613</v>
       </c>
     </row>
     <row r="11">
@@ -5030,28 +5032,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
         <v>3640.42229106801</v>
@@ -5066,10 +5068,10 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
         <v>4151.812499466573</v>
@@ -5127,19 +5129,19 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1307.627092998424</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N12" t="n">
-        <v>1307.627092998424</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="O12" t="n">
-        <v>1859.536823237711</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P12" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,19 +5175,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>931.4710609784063</v>
+        <v>989.3306680894883</v>
       </c>
       <c r="C13" t="n">
-        <v>762.5348780504994</v>
+        <v>820.3944851615814</v>
       </c>
       <c r="D13" t="n">
-        <v>612.4182386381636</v>
+        <v>670.2778457492457</v>
       </c>
       <c r="E13" t="n">
-        <v>464.5051450557705</v>
+        <v>522.3647521668526</v>
       </c>
       <c r="F13" t="n">
-        <v>317.6151975578602</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G13" t="n">
         <v>317.6151975578602</v>
@@ -5221,28 +5223,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2387.896824342741</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2205.041989997645</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>1985.440525020586</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1696.365298364784</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1441.680810158897</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="W13" t="n">
-        <v>1152.263640121936</v>
+        <v>1398.968683817745</v>
       </c>
       <c r="X13" t="n">
-        <v>1152.263640121936</v>
+        <v>1170.979132919728</v>
       </c>
       <c r="Y13" t="n">
-        <v>931.4710609784063</v>
+        <v>1170.979132919728</v>
       </c>
     </row>
     <row r="14">
@@ -5270,34 +5272,34 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111729</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075822</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
@@ -5306,19 +5308,19 @@
         <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5355,28 +5357,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="M15" t="n">
-        <v>1670.092171589158</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="N15" t="n">
-        <v>1670.092171589158</v>
+        <v>1550.665004989558</v>
       </c>
       <c r="O15" t="n">
-        <v>2222.001901828445</v>
+        <v>2102.574735228845</v>
       </c>
       <c r="P15" t="n">
-        <v>2516.421633107662</v>
+        <v>2526.197884723913</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1016.58045691144</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C16" t="n">
-        <v>847.6442739835331</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D16" t="n">
-        <v>697.5276345711974</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E16" t="n">
-        <v>549.6145409888043</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F16" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U16" t="n">
-        <v>1901.695539989114</v>
+        <v>1824.417283336614</v>
       </c>
       <c r="V16" t="n">
-        <v>1647.011051783227</v>
+        <v>1569.732795130727</v>
       </c>
       <c r="W16" t="n">
-        <v>1647.011051783227</v>
+        <v>1280.315625093766</v>
       </c>
       <c r="X16" t="n">
-        <v>1419.02150088521</v>
+        <v>1280.315625093766</v>
       </c>
       <c r="Y16" t="n">
-        <v>1198.22892174168</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="17">
@@ -5504,31 +5506,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
@@ -5552,10 +5554,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5589,31 +5591,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K18" t="n">
-        <v>244.2098454714574</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L18" t="n">
-        <v>739.5354516872161</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M18" t="n">
-        <v>1336.913939313768</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N18" t="n">
-        <v>1964.511902868375</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O18" t="n">
-        <v>2516.421633107662</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P18" t="n">
-        <v>2516.421633107662</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400712</v>
+        <v>849.3843576263199</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121643</v>
+        <v>680.448174698413</v>
       </c>
       <c r="D19" t="n">
-        <v>344.9174178121643</v>
+        <v>530.3315352860773</v>
       </c>
       <c r="E19" t="n">
-        <v>344.9174178121643</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F19" t="n">
-        <v>344.9174178121643</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G19" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
         <v>93.81666304797187</v>
@@ -5704,19 +5706,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1722.776592304621</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1479.814952498107</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138411</v>
+        <v>1251.82540160009</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703109</v>
+        <v>1031.03282245656</v>
       </c>
     </row>
     <row r="20">
@@ -5741,19 +5743,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I20" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5768,7 +5770,7 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
         <v>4562.265728852255</v>
@@ -5829,16 +5831,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K21" t="n">
-        <v>243.4633055756266</v>
+        <v>251.562654109227</v>
       </c>
       <c r="L21" t="n">
-        <v>243.4633055756266</v>
+        <v>746.8882603249857</v>
       </c>
       <c r="M21" t="n">
-        <v>716.6687843969308</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="N21" t="n">
         <v>1344.266747951538</v>
@@ -5884,16 +5886,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1098.667160263527</v>
+        <v>1030.918378293891</v>
       </c>
       <c r="C22" t="n">
-        <v>929.7309773356195</v>
+        <v>861.9821953659841</v>
       </c>
       <c r="D22" t="n">
-        <v>779.6143379232838</v>
+        <v>711.8655559536484</v>
       </c>
       <c r="E22" t="n">
-        <v>631.7012443408906</v>
+        <v>563.9524623712553</v>
       </c>
       <c r="F22" t="n">
         <v>484.8112968429803</v>
@@ -5947,13 +5949,13 @@
         <v>1722.776592304621</v>
       </c>
       <c r="W22" t="n">
-        <v>1722.776592304621</v>
+        <v>1433.359422267661</v>
       </c>
       <c r="X22" t="n">
-        <v>1501.108204237296</v>
+        <v>1433.359422267661</v>
       </c>
       <c r="Y22" t="n">
-        <v>1280.315625093766</v>
+        <v>1212.566843124131</v>
       </c>
     </row>
     <row r="23">
@@ -5975,40 +5977,40 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
@@ -6069,22 +6071,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L24" t="n">
-        <v>315.9123021921476</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M24" t="n">
-        <v>913.2907898186995</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="N24" t="n">
-        <v>1540.888753373306</v>
+        <v>1550.665004989558</v>
       </c>
       <c r="O24" t="n">
-        <v>2092.798483612593</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P24" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q24" t="n">
         <v>2516.421633107662</v>
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>727.9786782557277</v>
+        <v>3047.734188001555</v>
       </c>
       <c r="C25" t="n">
-        <v>559.0424953278208</v>
+        <v>2878.798005073648</v>
       </c>
       <c r="D25" t="n">
-        <v>408.925855915485</v>
+        <v>2728.681365661313</v>
       </c>
       <c r="E25" t="n">
-        <v>261.0127623330919</v>
+        <v>2728.681365661313</v>
       </c>
       <c r="F25" t="n">
-        <v>261.0127623330919</v>
+        <v>2728.681365661313</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797187</v>
+        <v>2561.485266376193</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>2419.773435218391</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>2417.922750296628</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>2679.612012822167</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>3070.010606998107</v>
       </c>
       <c r="M25" t="n">
-        <v>1248.150240910809</v>
+        <v>3492.020309729142</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>3909.43018138915</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>4278.959462098135</v>
       </c>
       <c r="P25" t="n">
-        <v>2327.764848853361</v>
+        <v>4571.634917671694</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.963083580261</v>
+        <v>4623.787448650995</v>
       </c>
       <c r="S25" t="n">
-        <v>2264.108249235165</v>
+        <v>4440.9326143059</v>
       </c>
       <c r="T25" t="n">
-        <v>2191.586158026164</v>
+        <v>4290.549088628462</v>
       </c>
       <c r="U25" t="n">
-        <v>1902.510931370362</v>
+        <v>4001.47386197266</v>
       </c>
       <c r="V25" t="n">
-        <v>1647.826443164475</v>
+        <v>3746.789373766773</v>
       </c>
       <c r="W25" t="n">
-        <v>1358.409273127515</v>
+        <v>3457.372203729812</v>
       </c>
       <c r="X25" t="n">
-        <v>1130.419722229497</v>
+        <v>3229.382652831795</v>
       </c>
       <c r="Y25" t="n">
-        <v>909.6271430859674</v>
+        <v>3229.382652831795</v>
       </c>
     </row>
     <row r="26">
@@ -6218,19 +6220,19 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
         <v>2206.558663014778</v>
@@ -6242,34 +6244,34 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="27">
@@ -6288,7 +6290,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6297,34 +6299,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797189</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L27" t="n">
-        <v>352.5519571452613</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M27" t="n">
-        <v>949.9304447718132</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N27" t="n">
-        <v>1577.52840832642</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="O27" t="n">
-        <v>2129.438138565707</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>580.8993044876693</v>
+        <v>782.841029837709</v>
       </c>
       <c r="C28" t="n">
-        <v>411.9631215597624</v>
+        <v>782.841029837709</v>
       </c>
       <c r="D28" t="n">
-        <v>402.7245934908938</v>
+        <v>632.7243904253733</v>
       </c>
       <c r="E28" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1755.431557602304</v>
+        <v>1736.580703808814</v>
       </c>
       <c r="V28" t="n">
-        <v>1500.747069396417</v>
+        <v>1481.896215602927</v>
       </c>
       <c r="W28" t="n">
-        <v>1211.329899359456</v>
+        <v>1192.479045565966</v>
       </c>
       <c r="X28" t="n">
-        <v>983.3403484614391</v>
+        <v>964.4894946679487</v>
       </c>
       <c r="Y28" t="n">
-        <v>762.547769317909</v>
+        <v>964.4894946679487</v>
       </c>
     </row>
     <row r="29">
@@ -6437,34 +6439,34 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332386</v>
@@ -6476,7 +6478,7 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6494,19 +6496,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="30">
@@ -6516,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C30" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D30" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F30" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G30" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>2231.588527385791</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>2381.235169913446</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>2381.235169913446</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>2381.235169913446</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>2817.800993781636</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N30" t="n">
-        <v>3445.398957336243</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O30" t="n">
-        <v>3997.30868757553</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P30" t="n">
-        <v>4420.931837070598</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>4654.193497445481</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S30" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T30" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U30" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V30" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W30" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X30" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y30" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>2978.493192213312</v>
+        <v>783.5579673960132</v>
       </c>
       <c r="C31" t="n">
-        <v>2834.086956247061</v>
+        <v>614.6217844681063</v>
       </c>
       <c r="D31" t="n">
-        <v>2708.500263796382</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="E31" t="n">
-        <v>2585.117117175645</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F31" t="n">
-        <v>2462.757116639391</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G31" t="n">
-        <v>2320.090964315927</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H31" t="n">
-        <v>2202.909080119781</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
-        <v>2145.352323729351</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>2249.630143176794</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>2535.361206719452</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>2949.801601912512</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
-        <v>3395.853105660666</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>3837.304778337793</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>4230.875860063898</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
-        <v>4547.593116654575</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>4648.317395612653</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S31" t="n">
-        <v>4489.992508229214</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T31" t="n">
-        <v>4294.920990213811</v>
+        <v>2247.16544716645</v>
       </c>
       <c r="U31" t="n">
-        <v>4030.375710519665</v>
+        <v>1958.090220510648</v>
       </c>
       <c r="V31" t="n">
-        <v>3800.221169275434</v>
+        <v>1703.405732304761</v>
       </c>
       <c r="W31" t="n">
-        <v>3535.33394620013</v>
+        <v>1413.9885622678</v>
       </c>
       <c r="X31" t="n">
-        <v>3331.874342263769</v>
+        <v>1185.999011369783</v>
       </c>
       <c r="Y31" t="n">
-        <v>3135.611710081895</v>
+        <v>965.2064322262529</v>
       </c>
     </row>
     <row r="32">
@@ -6674,43 +6676,43 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
         <v>3640.422291068009</v>
@@ -6731,19 +6733,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="33">
@@ -6774,25 +6776,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>1072.713683962606</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="M33" t="n">
-        <v>1670.092171589158</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N33" t="n">
-        <v>1670.092171589158</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O33" t="n">
-        <v>1896.176478190824</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P33" t="n">
         <v>2319.799627685893</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>2978.493192213312</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="C34" t="n">
-        <v>2834.086956247061</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="D34" t="n">
-        <v>2708.500263796382</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E34" t="n">
-        <v>2585.117117175645</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F34" t="n">
-        <v>2462.757116639391</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G34" t="n">
-        <v>2320.090964315927</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>2202.909080119781</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
-        <v>2145.352323729351</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>2249.630143176794</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>2535.361206719452</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>2949.801601912512</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
-        <v>3395.853105660666</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>3837.304778337793</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>4230.875860063898</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
-        <v>4547.593116654575</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>4648.317395612652</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>4489.992508229214</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>4294.920990213811</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>4030.375710519665</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="V34" t="n">
-        <v>3800.221169275434</v>
+        <v>1722.776592304621</v>
       </c>
       <c r="W34" t="n">
-        <v>3535.33394620013</v>
+        <v>1433.359422267661</v>
       </c>
       <c r="X34" t="n">
-        <v>3331.874342263769</v>
+        <v>1205.369871369643</v>
       </c>
       <c r="Y34" t="n">
-        <v>3135.611710081895</v>
+        <v>1029.292738813773</v>
       </c>
     </row>
     <row r="35">
@@ -6929,16 +6931,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6947,19 +6949,19 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
         <v>4606.285157492578</v>
@@ -6971,13 +6973,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -6999,7 +7001,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7008,31 +7010,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K36" t="n">
-        <v>243.4633055756266</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L36" t="n">
-        <v>243.4633055756266</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="M36" t="n">
-        <v>716.6687843969303</v>
+        <v>1026.887310050512</v>
       </c>
       <c r="N36" t="n">
-        <v>1344.266747951537</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O36" t="n">
-        <v>1896.176478190824</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P36" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
         <v>2553.061288060775</v>
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.9575315319322</v>
+        <v>950.1865537761979</v>
       </c>
       <c r="C37" t="n">
-        <v>782.5512955656816</v>
+        <v>781.250370848291</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150024</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E37" t="n">
-        <v>533.5814564942656</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580115</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G37" t="n">
-        <v>268.5553036345477</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H37" t="n">
-        <v>151.373419438402</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>198.0944824954147</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>483.8255460380726</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>898.2659412311322</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
-        <v>1344.317444979286</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1785.769117656414</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2179.340199382518</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
-        <v>2496.057455973196</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2639.297491717215</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2596.781734931274</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2438.456847547835</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2243.385329532432</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1978.840049838286</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1748.685508594055</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="W37" t="n">
-        <v>1483.798285518751</v>
+        <v>1398.968683817745</v>
       </c>
       <c r="X37" t="n">
-        <v>1280.338681582389</v>
+        <v>1170.979132919728</v>
       </c>
       <c r="Y37" t="n">
-        <v>1084.076049400516</v>
+        <v>950.1865537761979</v>
       </c>
     </row>
     <row r="38">
@@ -7160,40 +7162,40 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
@@ -7248,28 +7250,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>95.58405025273905</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>95.58405025273905</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>95.58405025273905</v>
+        <v>739.5354516872161</v>
       </c>
       <c r="M39" t="n">
-        <v>692.9625378792909</v>
+        <v>1336.913939313768</v>
       </c>
       <c r="N39" t="n">
-        <v>1320.560501433898</v>
+        <v>1964.511902868375</v>
       </c>
       <c r="O39" t="n">
-        <v>1872.470231673185</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P39" t="n">
-        <v>2296.093381168253</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q39" t="n">
         <v>2516.421633107662</v>
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319328</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C40" t="n">
-        <v>782.551295565682</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150025</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942657</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580115</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G40" t="n">
-        <v>268.5553036345476</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H40" t="n">
-        <v>151.373419438402</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>198.094482495415</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>483.8255460380729</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>898.2659412311325</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
-        <v>1344.317444979286</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1785.769117656414</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2179.340199382518</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
-        <v>2496.057455973196</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2639.297491717215</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2596.781734931273</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S40" t="n">
-        <v>2438.456847547834</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T40" t="n">
-        <v>2243.385329532431</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="U40" t="n">
-        <v>1978.840049838286</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="V40" t="n">
-        <v>1748.685508594056</v>
+        <v>2009.423761029278</v>
       </c>
       <c r="W40" t="n">
-        <v>1483.798285518751</v>
+        <v>1720.006590992317</v>
       </c>
       <c r="X40" t="n">
-        <v>1280.33868158239</v>
+        <v>1492.0170400943</v>
       </c>
       <c r="Y40" t="n">
-        <v>1084.076049400516</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="41">
@@ -7397,22 +7399,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111716</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7421,16 +7423,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
@@ -7445,13 +7447,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7473,7 +7475,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7482,31 +7484,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>577.3880777468471</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L42" t="n">
-        <v>980.1499206998682</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="M42" t="n">
-        <v>1577.52840832642</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="N42" t="n">
-        <v>1577.52840832642</v>
+        <v>1965.532750177311</v>
       </c>
       <c r="O42" t="n">
-        <v>2129.438138565707</v>
+        <v>2517.442480416598</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.061288060775</v>
+        <v>2517.442480416598</v>
       </c>
       <c r="Q42" t="n">
         <v>2553.061288060775</v>
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319324</v>
+        <v>800.6374272687975</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656818</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150023</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942655</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580114</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345476</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H43" t="n">
-        <v>151.373419438402</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>198.094482495415</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>483.825546038073</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>898.2659412311322</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
-        <v>1344.317444979286</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1785.769117656414</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2179.340199382518</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
-        <v>2496.057455973196</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2639.297491717215</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2596.781734931274</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S43" t="n">
-        <v>2438.456847547835</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T43" t="n">
-        <v>2243.385329532432</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U43" t="n">
-        <v>1978.840049838286</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V43" t="n">
-        <v>1748.685508594055</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W43" t="n">
-        <v>1483.798285518751</v>
+        <v>1249.419557310345</v>
       </c>
       <c r="X43" t="n">
-        <v>1280.33868158239</v>
+        <v>1021.430006412328</v>
       </c>
       <c r="Y43" t="n">
-        <v>1084.076049400516</v>
+        <v>800.6374272687975</v>
       </c>
     </row>
     <row r="44">
@@ -7646,37 +7648,37 @@
         <v>95.34095638192599</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R44" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
         <v>4151.812499466573</v>
@@ -7688,7 +7690,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7710,7 +7712,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E45" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F45" t="n">
         <v>314.2396613568978</v>
@@ -7719,34 +7721,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516144</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L45" t="n">
-        <v>1074.481071167373</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="M45" t="n">
-        <v>1336.913939313768</v>
+        <v>842.6091804069456</v>
       </c>
       <c r="N45" t="n">
-        <v>1964.511902868375</v>
+        <v>1470.207143961552</v>
       </c>
       <c r="O45" t="n">
-        <v>2516.421633107662</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P45" t="n">
-        <v>2516.421633107662</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>580.8993044876693</v>
+        <v>734.6461798836013</v>
       </c>
       <c r="C46" t="n">
-        <v>580.8993044876693</v>
+        <v>565.7099969556945</v>
       </c>
       <c r="D46" t="n">
-        <v>555.8158034133954</v>
+        <v>415.5933575433587</v>
       </c>
       <c r="E46" t="n">
-        <v>407.9027098310023</v>
+        <v>415.5933575433587</v>
       </c>
       <c r="F46" t="n">
-        <v>261.0127623330919</v>
+        <v>415.5933575433587</v>
       </c>
       <c r="G46" t="n">
-        <v>93.81666304797189</v>
+        <v>248.3972582582387</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>983.3403484614391</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>762.547769317909</v>
+        <v>916.2946447138411</v>
       </c>
     </row>
   </sheetData>
@@ -23413,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23425,10 +23427,10 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>108.2431272522977</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -23461,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>7.899650064977173</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23473,16 +23475,16 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23671,7 +23673,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23707,19 +23709,19 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>211.1765892730638</v>
+        <v>68.29586847696629</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23893,19 +23895,19 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856553</v>
@@ -23944,13 +23946,13 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>45.99097492814184</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24136,7 +24138,7 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>67.07129414993901</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -24187,10 +24189,10 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>6.257951202385243</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24370,7 +24372,7 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -24379,10 +24381,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,13 +24411,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>145.6085800303775</v>
+        <v>68.52575990662442</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24430,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24601,13 +24603,13 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>139.4693302300325</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -24619,7 +24621,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24655,7 +24657,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>47.71290145456655</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24667,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24844,13 +24846,13 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -24883,13 +24885,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>200.6320762792608</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -25075,7 +25077,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -25093,7 +25095,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25129,7 +25131,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25141,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>44.26829212178296</v>
       </c>
     </row>
     <row r="35">
@@ -25309,13 +25311,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>146.9958004224551</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -25369,7 +25371,7 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25594,16 +25596,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25615,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>9.000252501566507</v>
       </c>
     </row>
     <row r="41">
@@ -25783,16 +25785,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -25831,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25846,7 +25848,7 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>37.70876137138004</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -26023,25 +26025,25 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>123.7828069546813</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>68.52575990662532</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26089,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>627370.2627334466</v>
+        <v>616948.8851027385</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>627370.2627334466</v>
+        <v>616948.8851027385</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>627370.2627334466</v>
+        <v>616948.8851027386</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>627370.2627334466</v>
+        <v>616948.8851027386</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>627370.2627334466</v>
+        <v>616948.8851027385</v>
       </c>
     </row>
     <row r="16">
@@ -26314,46 +26316,46 @@
         <v>821041.769864283</v>
       </c>
       <c r="C2" t="n">
+        <v>821041.7698642832</v>
+      </c>
+      <c r="D2" t="n">
         <v>821041.7698642833</v>
       </c>
-      <c r="D2" t="n">
-        <v>821041.7698642835</v>
-      </c>
       <c r="E2" t="n">
-        <v>807146.5996900062</v>
+        <v>807146.5996900063</v>
       </c>
       <c r="F2" t="n">
-        <v>807146.5996900063</v>
+        <v>807146.5996900065</v>
       </c>
       <c r="G2" t="n">
-        <v>807146.599690006</v>
+        <v>807146.5996900061</v>
       </c>
       <c r="H2" t="n">
         <v>807146.599690006</v>
       </c>
       <c r="I2" t="n">
-        <v>807146.5996900065</v>
+        <v>807146.5996900061</v>
       </c>
       <c r="J2" t="n">
-        <v>807146.5996900059</v>
+        <v>807146.5996900062</v>
       </c>
       <c r="K2" t="n">
-        <v>821041.769864285</v>
+        <v>807146.5996900062</v>
       </c>
       <c r="L2" t="n">
-        <v>821041.7698642848</v>
+        <v>807146.5996900063</v>
       </c>
       <c r="M2" t="n">
-        <v>821041.7698642837</v>
+        <v>807146.5996900061</v>
       </c>
       <c r="N2" t="n">
-        <v>821041.7698642834</v>
+        <v>807146.5996900062</v>
       </c>
       <c r="O2" t="n">
-        <v>821041.7698642835</v>
+        <v>807146.599690006</v>
       </c>
       <c r="P2" t="n">
-        <v>807146.5996900063</v>
+        <v>807146.599690006</v>
       </c>
     </row>
     <row r="3">
@@ -26372,10 +26374,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073548</v>
+        <v>325412.4618073554</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1.797263848857256e-10</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26390,13 +26392,13 @@
         <v>217531.2023972775</v>
       </c>
       <c r="K3" t="n">
-        <v>19427.71799363177</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551178</v>
+        <v>85055.0279355119</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,13 +26417,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>91573.95495316945</v>
+        <v>91573.95495316933</v>
       </c>
       <c r="C4" t="n">
-        <v>91573.95495316933</v>
+        <v>91573.95495316942</v>
       </c>
       <c r="D4" t="n">
-        <v>91573.95495316935</v>
+        <v>91573.95495316948</v>
       </c>
       <c r="E4" t="n">
         <v>12386.92018181813</v>
@@ -26436,25 +26438,25 @@
         <v>12386.92018181813</v>
       </c>
       <c r="I4" t="n">
-        <v>12386.92018181807</v>
+        <v>12386.92018181813</v>
       </c>
       <c r="J4" t="n">
-        <v>12386.92018181809</v>
+        <v>12386.92018181818</v>
       </c>
       <c r="K4" t="n">
-        <v>20377.77944491159</v>
+        <v>12386.92018181813</v>
       </c>
       <c r="L4" t="n">
-        <v>20377.77944491154</v>
+        <v>12386.92018181813</v>
       </c>
       <c r="M4" t="n">
-        <v>20377.77944491155</v>
+        <v>12386.92018181813</v>
       </c>
       <c r="N4" t="n">
-        <v>20377.77944491159</v>
+        <v>12386.92018181813</v>
       </c>
       <c r="O4" t="n">
-        <v>20377.77944491159</v>
+        <v>12386.92018181813</v>
       </c>
       <c r="P4" t="n">
         <v>12386.92018181813</v>
@@ -26494,19 +26496,19 @@
         <v>101122.5298239071</v>
       </c>
       <c r="K5" t="n">
-        <v>103164.1158539154</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="L5" t="n">
-        <v>103164.1158539154</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="M5" t="n">
-        <v>103164.1158539154</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="N5" t="n">
-        <v>103164.1158539154</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="O5" t="n">
-        <v>103164.1158539154</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="P5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-707210.8713778723</v>
+        <v>-707210.8713778728</v>
       </c>
       <c r="C6" t="n">
-        <v>621533.8743497207</v>
+        <v>621533.8743497209</v>
       </c>
       <c r="D6" t="n">
         <v>621533.8743497208</v>
       </c>
       <c r="E6" t="n">
-        <v>368224.6878769262</v>
+        <v>368224.6878769257</v>
       </c>
       <c r="F6" t="n">
+        <v>693637.1496842811</v>
+      </c>
+      <c r="G6" t="n">
         <v>693637.1496842812</v>
-      </c>
-      <c r="G6" t="n">
-        <v>693637.1496842809</v>
       </c>
       <c r="H6" t="n">
         <v>693637.1496842809</v>
       </c>
       <c r="I6" t="n">
-        <v>693637.1496842813</v>
+        <v>693637.149684281</v>
       </c>
       <c r="J6" t="n">
-        <v>476105.9472870032</v>
+        <v>476105.9472870035</v>
       </c>
       <c r="K6" t="n">
-        <v>678072.1565718262</v>
+        <v>693637.1496842811</v>
       </c>
       <c r="L6" t="n">
-        <v>697499.8745654579</v>
+        <v>693637.1496842812</v>
       </c>
       <c r="M6" t="n">
-        <v>612444.846629945</v>
+        <v>608582.1217487691</v>
       </c>
       <c r="N6" t="n">
-        <v>697499.8745654564</v>
+        <v>693637.1496842811</v>
       </c>
       <c r="O6" t="n">
-        <v>697499.8745654565</v>
+        <v>693637.1496842809</v>
       </c>
       <c r="P6" t="n">
-        <v>693637.1496842811</v>
+        <v>693637.1496842809</v>
       </c>
     </row>
   </sheetData>
@@ -26710,19 +26712,19 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>24.28464749203969</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26735,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="C3" t="n">
         <v>1089.776700593298</v>
       </c>
       <c r="D3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26787,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26811,7 +26813,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
         <v>1172.708288099648</v>
@@ -26820,16 +26822,16 @@
         <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="P4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
     </row>
   </sheetData>
@@ -26932,7 +26934,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -26957,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,10 +26968,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483752</v>
+        <v>278.1987997483757</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27009,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973553</v>
+        <v>341.306832697356</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.306832697356</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27169,7 +27171,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27255,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973553</v>
+        <v>341.306832697356</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>50.1895784159961</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -27385,16 +27387,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27436,7 +27438,7 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>254.4799713457112</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -27540,19 +27542,19 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>147.6879977403128</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27582,16 +27584,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004729</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>187.3174462272548</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -27600,10 +27602,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27628,7 +27630,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -27667,22 +27669,22 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>271.8145707770538</v>
+        <v>268.242032689659</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27780,19 +27782,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>47.30846333297171</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,7 +27821,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -27834,10 +27836,10 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>255.4383016333999</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27850,19 +27852,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>153.0739764865587</v>
       </c>
       <c r="F8" t="n">
-        <v>82.87897977084248</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -27907,13 +27909,13 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -28011,25 +28013,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28059,25 +28061,25 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>122.9756056151956</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>33.50229141006221</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -29272,7 +29274,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -29667,76 +29669,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29906,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -30141,76 +30143,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -30378,76 +30380,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203969</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203969</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203969</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203969</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203969</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203969</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203969</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203969</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203969</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203969</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203969</v>
+        <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203969</v>
+        <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203969</v>
+        <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203969</v>
+        <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203969</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203969</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203969</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203969</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203969</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203969</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203969</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203969</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203969</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203969</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30617,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -31039,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681598</v>
+        <v>4.3810118616816</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844668</v>
+        <v>44.8670377284467</v>
       </c>
       <c r="I2" t="n">
         <v>168.89895979748</v>
       </c>
       <c r="J2" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K2" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003813</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623196</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574997</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095027</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099062</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746416</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781692</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806955</v>
       </c>
       <c r="T2" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H3" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752261</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353159</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138798</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233477</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837927</v>
       </c>
       <c r="O3" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970252</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002929</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987488</v>
       </c>
       <c r="R3" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238318</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898503</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1542136840462216</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31200,43 +31202,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H4" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742022</v>
       </c>
       <c r="J4" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297391</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L4" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098821</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316434</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P4" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q4" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712215</v>
+        <v>88.3612387071222</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112299</v>
       </c>
       <c r="U4" t="n">
         <v>0.1071911508780295</v>
@@ -31513,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I8" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J8" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.2811376003812</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.0999946781691</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R8" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T8" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,46 +31594,46 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H9" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837917</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O9" t="n">
-        <v>557.7086478970251</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R9" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31671,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H10" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P10" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q10" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31847,22 +31849,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>379.4203056753705</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
         <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>606.5820696732821</v>
       </c>
       <c r="P12" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
         <v>54.65449286742438</v>
@@ -31987,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P15" t="n">
-        <v>431.3680753731354</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>167.1165249313363</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32309,13 +32311,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>138.5955196772184</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
         <v>638.8832749473072</v>
@@ -32324,19 +32326,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>509.0826837242976</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32549,19 +32551,19 @@
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>297.1808238847177</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>620.1193660647499</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
         <v>700.0808204437243</v>
@@ -32698,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,10 +32779,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
@@ -32789,37 +32791,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>362.8934092184356</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>454.5879800486398</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,10 +33016,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
         <v>99.52238</v>
@@ -33026,37 +33028,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>399.9031616963282</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437244</v>
+        <v>514.695376254093</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33181,34 +33183,34 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J29" t="n">
-        <v>466.7546155663268</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,49 +33253,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>583.1096135868565</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>366.8427442359106</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,49 +33490,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>281.0363767960755</v>
       </c>
       <c r="N33" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>370.9642309107744</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33658,31 +33660,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,49 +33727,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M36" t="n">
-        <v>620.1193660647493</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>687.544841654958</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,7 +33885,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33895,31 +33897,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.451622204372</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,49 +33964,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>302.3396059822671</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>362.5355639238077</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,7 +34122,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34129,34 +34131,34 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663288</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>545.3845241768652</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>175.960367665998</v>
       </c>
       <c r="R42" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,7 +34359,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34369,31 +34371,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,10 +34438,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
         <v>101.3076196007749</v>
@@ -34448,37 +34450,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M45" t="n">
-        <v>407.217739120397</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437244</v>
+        <v>572.868299221487</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554007</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923324</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302268</v>
+        <v>538.921115830227</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129117</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882195</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193721</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037197</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222489</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597719</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609569</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013294</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004594</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525808</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859627</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127273</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306628</v>
       </c>
       <c r="K4" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443197</v>
       </c>
       <c r="L4" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M4" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N4" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O4" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226399</v>
       </c>
       <c r="P4" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789371</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35170,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882193</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P8" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.62350453597716</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004584</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.57841661306625</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K10" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L10" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M10" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N10" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O10" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P10" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35495,22 +35497,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>237.2862717533522</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>463.9858252288377</v>
       </c>
       <c r="P12" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35641,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,31 +35725,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P15" t="n">
-        <v>297.3936679588052</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>27.13475084531481</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35957,13 +35959,13 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0.7540807028594299</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
         <v>500.328895167433</v>
@@ -35972,19 +35974,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>377.7409716409642</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36197,19 +36199,19 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>159.3393849103587</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>477.9853321427316</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>557.4845759992799</v>
@@ -36352,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
-        <v>285.7087110396405</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36437,28 +36439,28 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>224.3390294385614</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>311.9917356041954</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36674,28 +36676,28 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>261.348781916454</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.48457599928</v>
+        <v>372.0991318096486</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
-        <v>285.7087110396405</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,34 +36907,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>440.9755796648383</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>235.5010321525773</v>
       </c>
       <c r="O30" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>105.3311307549931</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>288.6172359016747</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>418.6266618111712</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>450.5570744930849</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
-        <v>445.9107804819472</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>397.5465471980852</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
-        <v>319.9164207986647</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q31" t="n">
-        <v>144.6869047919381</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37063,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462675</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37151,22 +37153,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>138.9023428740572</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>228.3679864663299</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>105.3311307549931</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>288.6172359016747</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>418.6266618111712</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>450.5570744930849</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
-        <v>445.9107804819472</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>397.5465471980852</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
-        <v>319.9164207986647</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q34" t="n">
-        <v>144.6869047919381</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37300,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,31 +37381,31 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>477.985332142731</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>556.2031295716247</v>
       </c>
       <c r="O36" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>105.3311307549931</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>288.6172359016747</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>418.6266618111712</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>450.5570744930849</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
-        <v>445.9107804819471</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>397.5465471980852</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
-        <v>319.9164207986647</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q37" t="n">
-        <v>144.6869047919381</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37537,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,34 +37618,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>163.7852262023929</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>222.5537898377862</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>105.3311307549931</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>288.6172359016747</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>418.6266618111712</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>450.5570744930849</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
-        <v>445.9107804819471</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>397.5465471980852</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
-        <v>319.9164207986647</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q40" t="n">
-        <v>144.6869047919381</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37774,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,31 +37855,31 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>406.830144396991</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>35.9785935799765</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>105.3311307549931</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>288.6172359016747</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>418.6266618111712</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>450.5570744930849</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
-        <v>445.9107804819471</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>397.5465471980852</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
-        <v>319.9164207986647</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q43" t="n">
-        <v>144.6869047919381</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38011,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,34 +38092,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>265.0837051983787</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.48457599928</v>
+        <v>430.2720547770426</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_19_40.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_19_40.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4005710.590254616</v>
+        <v>4007471.120557401</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283175</v>
+        <v>416855.1052283184</v>
       </c>
     </row>
     <row r="9">
@@ -658,28 +658,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>410.9217256534534</v>
+        <v>148.9619745303265</v>
       </c>
       <c r="H2" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -718,13 +718,13 @@
         <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>61.87208633602847</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -816,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -834,7 +834,7 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -867,19 +867,19 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>125.8870582755869</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>210.6180377869401</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -898,7 +898,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -910,10 +910,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>10.92172565345345</v>
+        <v>398.2524006183698</v>
       </c>
       <c r="H5" t="n">
-        <v>273.0529551528114</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -952,7 +952,7 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -1068,13 +1068,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>145.8111705386692</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1104,13 +1104,13 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>169.644780075416</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -1147,10 +1147,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>10.92172565345345</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1183,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1192,13 +1192,13 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>218.8748435506846</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>134.0513867710694</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1299,13 +1299,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>71.67037196991711</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1344,10 +1344,10 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>77.31354443380452</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -1369,22 +1369,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710074</v>
+        <v>365.2728917710091</v>
       </c>
       <c r="D11" t="n">
-        <v>354.6830416206828</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417113</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187865</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
         <v>283.1540821444137</v>
@@ -1420,22 +1420,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695523</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T11" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881266</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.2409687174129</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.7311006784689</v>
+        <v>369.7311006784691</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1466,7 +1466,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128548</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1499,7 +1499,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>117.0286782364135</v>
+        <v>117.0286782364134</v>
       </c>
       <c r="T12" t="n">
         <v>188.3046392154443</v>
@@ -1527,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819372</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986277</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922687</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>1.799772605718363</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856543</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,28 +1575,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.3752467101216</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016445</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272881</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.184474389244</v>
+        <v>172.0260335000794</v>
       </c>
       <c r="V13" t="n">
-        <v>252.1376433238279</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.5229983365909</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.709655389037</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520946</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1618,10 +1618,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417115</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187865</v>
+        <v>409.8033385187878</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695258</v>
+        <v>83.70251495695524</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1669,13 +1669,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.2409687174129</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.7311006784689</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -1703,7 +1703,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128548</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1736,7 +1736,7 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>117.0286782364135</v>
+        <v>117.0286782364134</v>
       </c>
       <c r="T15" t="n">
         <v>188.3046392154443</v>
@@ -1764,10 +1764,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819372</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986277</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1779,13 +1779,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922687</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>1.799772605718335</v>
+        <v>83.06560892428298</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856543</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,28 +1812,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.3752467101216</v>
+        <v>66.37524671012163</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016445</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272881</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>286.184474389244</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>252.1376433238279</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.5229983365909</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.709655389037</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520946</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1846,10 +1846,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D17" t="n">
-        <v>354.6830416206807</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1940,7 +1940,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H18" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -2001,13 +2001,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819372</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182122</v>
+        <v>28.75188085812005</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2016,13 +2016,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>45.66054613217921</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462237</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856541</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,28 +2049,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012156</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016445</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272881</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>286.184474389244</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>252.1376433238279</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.5229983365909</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.709655389037</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520946</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576164</v>
@@ -2177,7 +2177,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H21" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2238,10 +2238,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819372</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986277</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2253,10 +2253,10 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>108.2950343703291</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462237</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2286,28 +2286,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012156</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016445</v>
+        <v>123.7971820797026</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272881</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>286.184474389244</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>252.1376433238279</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.5229983365909</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.709655389037</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520946</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2475,10 +2475,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819372</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986277</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2490,13 +2490,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922687</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>83.06560892428507</v>
+        <v>1.79977260571614</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,28 +2523,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012152</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016445</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272881</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>286.184474389244</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>252.1376433238279</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.5229983365909</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.709655389037</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520946</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2554,7 +2554,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634811</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2721,19 +2721,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>99.97427419833859</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>26.13627195705825</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,13 +2760,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2967,7 +2967,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>83.06560892428213</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3012,7 +3012,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>229.2938944146487</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -3043,7 +3043,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>409.8033385187877</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
         <v>283.1540821444137</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -3198,7 +3198,7 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>107.7122866515517</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
@@ -3207,7 +3207,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3268,7 +3268,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710062</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
@@ -3316,10 +3316,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
-        <v>199.0222304576173</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
         <v>250.9057009881286</v>
@@ -3429,19 +3429,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>83.06560892428212</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3480,7 +3480,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>286.1844743892441</v>
+        <v>240.7377005646511</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3672,13 +3672,13 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>103.1686991936197</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3903,22 +3903,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>129.0096827405969</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>100.5858322992699</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4137,22 +4137,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>123.9815576456784</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4182,10 +4182,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>123.7971820797026</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2303.170539913434</v>
+        <v>921.7704558796252</v>
       </c>
       <c r="C2" t="n">
-        <v>1934.208022973022</v>
+        <v>921.7704558796252</v>
       </c>
       <c r="D2" t="n">
-        <v>1575.942324366272</v>
+        <v>563.5047572728747</v>
       </c>
       <c r="E2" t="n">
-        <v>1190.154071768027</v>
+        <v>563.5047572728747</v>
       </c>
       <c r="F2" t="n">
-        <v>779.1681669784198</v>
+        <v>556.5592565236713</v>
       </c>
       <c r="G2" t="n">
-        <v>364.0957168234162</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H2" t="n">
-        <v>66.51211643218343</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810564</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520489</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U2" t="n">
-        <v>2755.806928794325</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V2" t="n">
-        <v>2693.309871889246</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W2" t="n">
-        <v>2693.309871889246</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="X2" t="n">
-        <v>2693.309871889246</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="Y2" t="n">
-        <v>2303.170539913434</v>
+        <v>1308.370295943747</v>
       </c>
     </row>
     <row r="3">
@@ -4385,37 +4385,37 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D3" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G3" t="n">
         <v>176.0213023927779</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064537</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J3" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K3" t="n">
         <v>398.4535849031479</v>
       </c>
       <c r="L3" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M3" t="n">
         <v>1212.428070438129</v>
@@ -4442,7 +4442,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V3" t="n">
         <v>1779.608347199865</v>
@@ -4451,10 +4451,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="4">
@@ -4464,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>994.2880032601528</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="C4" t="n">
-        <v>825.3518203322459</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D4" t="n">
-        <v>675.2351809199101</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E4" t="n">
-        <v>527.322087337517</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F4" t="n">
-        <v>380.4321398396067</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="G4" t="n">
-        <v>212.7293032143257</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H4" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J4" t="n">
         <v>111.634748879119</v>
@@ -4515,25 +4515,25 @@
         <v>1837.464090846021</v>
       </c>
       <c r="S4" t="n">
-        <v>1837.464090846021</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T4" t="n">
-        <v>1837.464090846021</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U4" t="n">
-        <v>1837.464090846021</v>
+        <v>1296.852946519558</v>
       </c>
       <c r="V4" t="n">
-        <v>1837.464090846021</v>
+        <v>1296.852946519558</v>
       </c>
       <c r="W4" t="n">
-        <v>1624.71859813194</v>
+        <v>1296.852946519558</v>
       </c>
       <c r="X4" t="n">
-        <v>1396.729047233923</v>
+        <v>1068.863395621541</v>
       </c>
       <c r="Y4" t="n">
-        <v>1175.936468090393</v>
+        <v>848.0708164780106</v>
       </c>
     </row>
     <row r="5">
@@ -4543,31 +4543,31 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1491.569348694473</v>
+        <v>1238.038871968309</v>
       </c>
       <c r="C5" t="n">
-        <v>1122.606831754061</v>
+        <v>1238.038871968309</v>
       </c>
       <c r="D5" t="n">
-        <v>764.341133147311</v>
+        <v>879.7731733615585</v>
       </c>
       <c r="E5" t="n">
-        <v>764.341133147311</v>
+        <v>879.7731733615585</v>
       </c>
       <c r="F5" t="n">
-        <v>353.3552283577034</v>
+        <v>468.787268571951</v>
       </c>
       <c r="G5" t="n">
-        <v>342.323182243104</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H5" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K5" t="n">
         <v>589.2106210810562</v>
@@ -4585,10 +4585,10 @@
         <v>2623.528026939509</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
         <v>3325.605821609171</v>
@@ -4600,19 +4600,19 @@
         <v>3325.605821609171</v>
       </c>
       <c r="U5" t="n">
-        <v>3325.605821609171</v>
+        <v>3072.075344883007</v>
       </c>
       <c r="V5" t="n">
-        <v>2994.542934265601</v>
+        <v>2741.012457539437</v>
       </c>
       <c r="W5" t="n">
-        <v>2641.774278995486</v>
+        <v>2388.243802269322</v>
       </c>
       <c r="X5" t="n">
-        <v>2268.308520734407</v>
+        <v>2014.778044008242</v>
       </c>
       <c r="Y5" t="n">
-        <v>1878.169188758595</v>
+        <v>1624.638712032431</v>
       </c>
     </row>
     <row r="6">
@@ -4637,16 +4637,16 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G6" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K6" t="n">
         <v>398.4535849031479</v>
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>973.8691772799922</v>
+        <v>1091.613680441807</v>
       </c>
       <c r="C7" t="n">
-        <v>804.9329943520853</v>
+        <v>922.6774975139006</v>
       </c>
       <c r="D7" t="n">
-        <v>654.8163549397495</v>
+        <v>772.5608581015648</v>
       </c>
       <c r="E7" t="n">
-        <v>506.9032613573564</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="F7" t="n">
-        <v>360.013313859446</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G7" t="n">
-        <v>212.7293032143257</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218343</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J7" t="n">
         <v>111.634748879119</v>
@@ -4752,25 +4752,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S7" t="n">
-        <v>1927.294548088493</v>
+        <v>1755.936184375951</v>
       </c>
       <c r="T7" t="n">
-        <v>1927.294548088493</v>
+        <v>1755.936184375951</v>
       </c>
       <c r="U7" t="n">
-        <v>1638.191681214136</v>
+        <v>1755.936184375951</v>
       </c>
       <c r="V7" t="n">
-        <v>1383.507193008249</v>
+        <v>1501.251696170064</v>
       </c>
       <c r="W7" t="n">
-        <v>1383.507193008249</v>
+        <v>1501.251696170064</v>
       </c>
       <c r="X7" t="n">
-        <v>1155.517642110232</v>
+        <v>1273.262145272047</v>
       </c>
       <c r="Y7" t="n">
-        <v>1155.517642110232</v>
+        <v>1273.262145272047</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1601.546535481797</v>
+        <v>2303.170539913434</v>
       </c>
       <c r="C8" t="n">
-        <v>1232.584018541385</v>
+        <v>1934.208022973022</v>
       </c>
       <c r="D8" t="n">
-        <v>874.3183199346347</v>
+        <v>1575.942324366272</v>
       </c>
       <c r="E8" t="n">
-        <v>488.5300673363905</v>
+        <v>1190.154071768027</v>
       </c>
       <c r="F8" t="n">
-        <v>77.54416254678289</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="G8" t="n">
-        <v>66.51211643218343</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H8" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
         <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O8" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U8" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="V8" t="n">
-        <v>3104.520121052924</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="W8" t="n">
-        <v>2751.75146578281</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="X8" t="n">
-        <v>2378.28570752173</v>
+        <v>3079.909711953368</v>
       </c>
       <c r="Y8" t="n">
-        <v>1988.146375545919</v>
+        <v>2689.770379977556</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811095</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999825</v>
       </c>
       <c r="D9" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387314</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332758</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601609</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927781</v>
+        <v>176.0213023927789</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064576</v>
+        <v>85.51940803064583</v>
       </c>
       <c r="I9" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228006</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031475</v>
+        <v>398.4535849031484</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158141</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125858</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619338</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431609</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501178</v>
       </c>
     </row>
     <row r="10">
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>385.5649387724261</v>
+        <v>752.7622949738579</v>
       </c>
       <c r="C10" t="n">
-        <v>216.6287558445192</v>
+        <v>583.826112045951</v>
       </c>
       <c r="D10" t="n">
-        <v>66.51211643218343</v>
+        <v>433.7094726336153</v>
       </c>
       <c r="E10" t="n">
-        <v>66.51211643218343</v>
+        <v>285.7963790512222</v>
       </c>
       <c r="F10" t="n">
-        <v>66.51211643218343</v>
+        <v>138.9064315533118</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4992,22 +4992,22 @@
         <v>1927.294548088493</v>
       </c>
       <c r="T10" t="n">
-        <v>1849.200058761417</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U10" t="n">
-        <v>1560.097191887061</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="V10" t="n">
-        <v>1305.412703681174</v>
+        <v>1672.610059882606</v>
       </c>
       <c r="W10" t="n">
-        <v>1015.995533644213</v>
+        <v>1383.192889845645</v>
       </c>
       <c r="X10" t="n">
-        <v>788.005982746196</v>
+        <v>1155.203338947628</v>
       </c>
       <c r="Y10" t="n">
-        <v>567.2134036026658</v>
+        <v>934.4107598040977</v>
       </c>
     </row>
     <row r="11">
@@ -5017,7 +5017,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551877</v>
       </c>
       <c r="C11" t="n">
         <v>1948.813509611463</v>
@@ -5026,67 +5026,67 @@
         <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H11" t="n">
-        <v>93.8166630479718</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075793</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332385</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014776</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355934</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068007</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694704</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852252</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.83315239859</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492575</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474781</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591811</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615999</v>
       </c>
     </row>
     <row r="12">
@@ -5105,31 +5105,31 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
-        <v>314.2396613568977</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G12" t="n">
-        <v>178.4809954028056</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.8166630479718</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I12" t="n">
-        <v>93.8166630479718</v>
+        <v>95.5840502527391</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756264</v>
+        <v>245.2306927803939</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468466</v>
+        <v>579.1554649516146</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962605</v>
+        <v>1074.481071167374</v>
       </c>
       <c r="M12" t="n">
-        <v>1501.840175011101</v>
+        <v>1501.8401750111</v>
       </c>
       <c r="N12" t="n">
         <v>2129.438138565707</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.853600740073</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C13" t="n">
-        <v>344.9174178121663</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D13" t="n">
-        <v>344.9174178121663</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E13" t="n">
-        <v>344.9174178121663</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F13" t="n">
-        <v>344.9174178121663</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G13" t="n">
-        <v>177.7213185270463</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000581</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.8166630479718</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487568</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510509</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854707</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.70136564882</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.28419561186</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138426</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703127</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611465</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168624</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075814</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332385</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014776</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355934</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068007</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694704</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852253</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398591</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T14" t="n">
         <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="15">
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,28 +5351,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273892</v>
+        <v>95.58405025273912</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803934</v>
+        <v>245.230692780394</v>
       </c>
       <c r="K15" t="n">
-        <v>579.1554649516138</v>
+        <v>251.5626541092253</v>
       </c>
       <c r="L15" t="n">
-        <v>1074.481071167372</v>
+        <v>746.8882603249843</v>
       </c>
       <c r="M15" t="n">
-        <v>1671.859558793923</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="N15" t="n">
-        <v>1671.859558793923</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190825</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P15" t="n">
         <v>2319.799627685893</v>
@@ -5412,61 +5412,61 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.853600740073</v>
+        <v>513.8536007400726</v>
       </c>
       <c r="C16" t="n">
-        <v>344.9174178121663</v>
+        <v>344.9174178121657</v>
       </c>
       <c r="D16" t="n">
-        <v>344.9174178121663</v>
+        <v>344.9174178121657</v>
       </c>
       <c r="E16" t="n">
-        <v>344.9174178121663</v>
+        <v>344.9174178121657</v>
       </c>
       <c r="F16" t="n">
-        <v>344.9174178121663</v>
+        <v>344.9174178121657</v>
       </c>
       <c r="G16" t="n">
-        <v>177.7213185270463</v>
+        <v>177.7213185270456</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000581</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782959</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797749</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279804</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580262</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487569</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.46108051051</v>
       </c>
       <c r="U16" t="n">
         <v>1688.385853854707</v>
@@ -5478,10 +5478,10 @@
         <v>1144.28419561186</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138426</v>
+        <v>916.2946447138424</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703127</v>
+        <v>695.5020655703123</v>
       </c>
     </row>
     <row r="17">
@@ -5491,10 +5491,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551873</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611461</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
         <v>1590.547811004713</v>
@@ -5506,19 +5506,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332386</v>
@@ -5530,37 +5530,37 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398592</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492576</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474782</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466571</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852886</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591806</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615995</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="18">
@@ -5588,22 +5588,22 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273898</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803936</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>579.1554649516141</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
         <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1671.859558793924</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
         <v>2001.151557821488</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400735</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>513.8536007400735</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D19" t="n">
-        <v>363.7369613277379</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E19" t="n">
-        <v>363.7369613277379</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F19" t="n">
-        <v>363.7369613277379</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578599</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000581</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648821</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.28419561186</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>916.294644713843</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703131</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5749,31 +5749,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111712</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
@@ -5816,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5828,7 +5828,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
         <v>245.2306927803937</v>
@@ -5840,10 +5840,10 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1671.859558793924</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>2299.457522348531</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
         <v>2553.061288060775</v>
@@ -5886,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400735</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121667</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D22" t="n">
-        <v>344.9174178121667</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E22" t="n">
-        <v>344.9174178121667</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F22" t="n">
-        <v>344.9174178121667</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057737</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
         <v>93.81666304797187</v>
@@ -5910,52 +5910,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487568</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510509</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854707</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648821</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.28419561186</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X22" t="n">
-        <v>916.294644713843</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703131</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="23">
@@ -5980,22 +5980,22 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075798</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M23" t="n">
         <v>2206.558663014778</v>
@@ -6004,7 +6004,7 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400744</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121676</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121676</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121676</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F25" t="n">
-        <v>344.9174178121676</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G25" t="n">
-        <v>177.7213185270477</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782959</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038347</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.140538179775</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279804</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580262</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487569</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.46108051051</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854708</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648822</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611861</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138439</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.502065570314</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6220,55 +6220,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192602</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6290,7 +6290,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6299,16 +6299,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
         <v>1074.481071167373</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400717</v>
+        <v>983.3556038098237</v>
       </c>
       <c r="C28" t="n">
-        <v>344.9174178121648</v>
+        <v>814.4194208819168</v>
       </c>
       <c r="D28" t="n">
-        <v>194.8007783998291</v>
+        <v>664.3027814695811</v>
       </c>
       <c r="E28" t="n">
-        <v>194.8007783998291</v>
+        <v>516.389687887188</v>
       </c>
       <c r="F28" t="n">
-        <v>194.8007783998291</v>
+        <v>369.4997403892776</v>
       </c>
       <c r="G28" t="n">
-        <v>93.81666304797189</v>
+        <v>202.3036411041575</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487568</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510509</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854707</v>
+        <v>2157.887856924458</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.70136564882</v>
+        <v>1903.203368718571</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611859</v>
+        <v>1613.786198681611</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138415</v>
+        <v>1385.796647783593</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703114</v>
+        <v>1165.004068640063</v>
       </c>
     </row>
     <row r="29">
@@ -6451,34 +6451,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075817</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6539,13 +6539,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
         <v>1074.481071167373</v>
@@ -6554,10 +6554,10 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1896.176478190824</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O30" t="n">
-        <v>1896.176478190824</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P30" t="n">
         <v>2319.799627685893</v>
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400717</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C31" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D31" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E31" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F31" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G31" t="n">
-        <v>177.7213185270447</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
         <v>93.81666304797187</v>
@@ -6621,52 +6621,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611859</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138415</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703114</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="32">
@@ -6679,31 +6679,31 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332388</v>
@@ -6715,34 +6715,34 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
         <v>4562.265728852256</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6764,7 +6764,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6773,16 +6773,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
         <v>1074.481071167373</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>762.547769317909</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C34" t="n">
-        <v>593.6115863900021</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D34" t="n">
-        <v>593.6115863900021</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E34" t="n">
-        <v>593.6115863900021</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.963083580261</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S34" t="n">
-        <v>2264.108249235165</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T34" t="n">
-        <v>2044.506784258106</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U34" t="n">
-        <v>1755.431557602304</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V34" t="n">
-        <v>1500.747069396417</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W34" t="n">
-        <v>1211.329899359456</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X34" t="n">
-        <v>983.3403484614391</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y34" t="n">
-        <v>762.547769317909</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="35">
@@ -6913,7 +6913,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C35" t="n">
         <v>1948.813509611463</v>
@@ -6931,19 +6931,19 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192602</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
         <v>2206.558663014778</v>
@@ -6955,34 +6955,34 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="36">
@@ -7001,7 +7001,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7010,31 +7010,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L36" t="n">
-        <v>245.2306927803938</v>
+        <v>315.9123021921482</v>
       </c>
       <c r="M36" t="n">
-        <v>842.6091804069456</v>
+        <v>913.2907898187001</v>
       </c>
       <c r="N36" t="n">
-        <v>1470.207143961552</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O36" t="n">
-        <v>2022.116874200839</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P36" t="n">
-        <v>2445.740023695907</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q36" t="n">
         <v>2516.421633107662</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400717</v>
+        <v>559.7594328861248</v>
       </c>
       <c r="C37" t="n">
-        <v>344.9174178121648</v>
+        <v>390.823249958218</v>
       </c>
       <c r="D37" t="n">
-        <v>344.9174178121648</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="E37" t="n">
-        <v>344.9174178121648</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F37" t="n">
-        <v>344.9174178121648</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G37" t="n">
-        <v>177.7213185270447</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854707</v>
+        <v>1734.29168600076</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.70136564882</v>
+        <v>1479.607197794873</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611859</v>
+        <v>1190.190027757912</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138415</v>
+        <v>962.2004768598947</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703114</v>
+        <v>741.4078977163646</v>
       </c>
     </row>
     <row r="38">
@@ -7165,31 +7165,31 @@
         <v>793.7736536168613</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192598</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111716</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7308,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400717</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D40" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E40" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F40" t="n">
-        <v>198.0274703142544</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G40" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
         <v>93.81666304797187</v>
@@ -7332,52 +7332,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487568</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510509</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854707</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.70136564882</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611859</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138415</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703114</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="41">
@@ -7402,31 +7402,31 @@
         <v>793.7736536168609</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192451</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111701</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>763.7541388327652</v>
+        <v>763.7541388327643</v>
       </c>
       <c r="C43" t="n">
-        <v>594.8179559048583</v>
+        <v>594.8179559048574</v>
       </c>
       <c r="D43" t="n">
-        <v>594.8179559048583</v>
+        <v>444.7013164925216</v>
       </c>
       <c r="E43" t="n">
-        <v>464.5051450557705</v>
+        <v>444.7013164925216</v>
       </c>
       <c r="F43" t="n">
-        <v>317.6151975578601</v>
+        <v>444.7013164925216</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578601</v>
+        <v>277.5052172074016</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T43" t="n">
-        <v>2227.361618603202</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U43" t="n">
-        <v>1938.2863919474</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V43" t="n">
-        <v>1683.601903741513</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W43" t="n">
-        <v>1394.184733704552</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X43" t="n">
-        <v>1166.195182806535</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y43" t="n">
-        <v>945.4026036630049</v>
+        <v>945.402603663004</v>
       </c>
     </row>
     <row r="44">
@@ -7636,34 +7636,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192451</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111701</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7724,22 +7724,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
         <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1671.859558793925</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N45" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O45" t="n">
         <v>2553.061288060775</v>
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400717</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C46" t="n">
-        <v>513.8536007400717</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D46" t="n">
-        <v>388.6197041282753</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E46" t="n">
-        <v>240.7066105458822</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F46" t="n">
-        <v>93.81666304797187</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G46" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7806,52 +7806,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487568</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510509</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854707</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.70136564882</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611859</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138415</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703114</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
   </sheetData>
@@ -23421,19 +23421,19 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182122</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.433962646569</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>138.4949402405054</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23463,16 +23463,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>114.1584408891647</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23658,10 +23658,10 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182122</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.433962646569</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -23670,10 +23670,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>138.4949402405054</v>
+        <v>57.22910392194088</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23892,19 +23892,19 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986277</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>119.8635921600923</v>
       </c>
       <c r="E19" t="n">
-        <v>146.433962646569</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229311</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>119.8635921600895</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -24141,13 +24141,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>57.22910392193958</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856541</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24177,7 +24177,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>57.229103921942</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24381,10 +24381,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>57.22910392193864</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856538</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24609,19 +24609,19 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>65.54986409393025</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>114.1584408891656</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,13 +24648,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24855,10 +24855,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>57.22910392194173</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24900,7 +24900,7 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25074,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -25086,7 +25086,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>37.70876137137955</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -25095,7 +25095,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25317,22 +25317,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>57.22910392194174</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25368,7 +25368,7 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>45.44677382459304</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25560,16 +25560,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>62.35543909864911</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25791,19 +25791,19 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>17.42427990597227</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>39.70888054695402</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -26025,25 +26025,25 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>24.63391537253398</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26073,7 +26073,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>57.229103921942</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>616948.8851027385</v>
+        <v>616948.8851027386</v>
       </c>
     </row>
     <row r="6">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>616948.8851027386</v>
+        <v>616948.8851027385</v>
       </c>
     </row>
     <row r="8">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>616948.8851027385</v>
+        <v>616948.8851027386</v>
       </c>
     </row>
     <row r="11">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>616948.8851027385</v>
+        <v>616948.8851027386</v>
       </c>
     </row>
     <row r="16">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>821041.7698642833</v>
+        <v>821041.7698642829</v>
       </c>
       <c r="C2" t="n">
-        <v>821041.769864283</v>
+        <v>821041.7698642832</v>
       </c>
       <c r="D2" t="n">
-        <v>821041.7698642832</v>
+        <v>821041.7698642834</v>
       </c>
       <c r="E2" t="n">
-        <v>807146.5996900059</v>
+        <v>807146.5996900065</v>
       </c>
       <c r="F2" t="n">
+        <v>807146.599690006</v>
+      </c>
+      <c r="G2" t="n">
         <v>807146.5996900061</v>
       </c>
-      <c r="G2" t="n">
+      <c r="H2" t="n">
         <v>807146.5996900063</v>
       </c>
-      <c r="H2" t="n">
+      <c r="I2" t="n">
         <v>807146.5996900061</v>
       </c>
-      <c r="I2" t="n">
+      <c r="J2" t="n">
+        <v>807146.5996900065</v>
+      </c>
+      <c r="K2" t="n">
+        <v>807146.5996900063</v>
+      </c>
+      <c r="L2" t="n">
         <v>807146.5996900062</v>
       </c>
-      <c r="J2" t="n">
-        <v>807146.5996900062</v>
-      </c>
-      <c r="K2" t="n">
-        <v>807146.5996900062</v>
-      </c>
-      <c r="L2" t="n">
-        <v>807146.5996900066</v>
-      </c>
       <c r="M2" t="n">
-        <v>807146.5996900061</v>
+        <v>807146.599690006</v>
       </c>
       <c r="N2" t="n">
         <v>807146.5996900062</v>
       </c>
       <c r="O2" t="n">
+        <v>807146.5996900063</v>
+      </c>
+      <c r="P2" t="n">
         <v>807146.5996900065</v>
-      </c>
-      <c r="P2" t="n">
-        <v>807146.5996900063</v>
       </c>
     </row>
     <row r="3">
@@ -26374,22 +26374,22 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073544</v>
+        <v>325412.4618073556</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1.797263848857256e-10</v>
       </c>
       <c r="G3" t="n">
-        <v>3.535601535986644e-10</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>1.22694927995326e-10</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>3.42310613632435e-10</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972776</v>
+        <v>217531.2023972774</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551156</v>
+        <v>85055.02793551187</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,28 +26417,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>91573.95495316939</v>
+        <v>91573.95495316945</v>
       </c>
       <c r="C4" t="n">
-        <v>91573.95495316938</v>
+        <v>91573.95495316941</v>
       </c>
       <c r="D4" t="n">
-        <v>91573.95495316939</v>
+        <v>91573.95495316942</v>
       </c>
       <c r="E4" t="n">
-        <v>12386.92018181833</v>
+        <v>12386.92018181805</v>
       </c>
       <c r="F4" t="n">
-        <v>12386.92018181836</v>
+        <v>12386.92018181807</v>
       </c>
       <c r="G4" t="n">
-        <v>12386.92018181827</v>
+        <v>12386.92018181813</v>
       </c>
       <c r="H4" t="n">
-        <v>12386.92018181817</v>
+        <v>12386.92018181813</v>
       </c>
       <c r="I4" t="n">
-        <v>12386.92018181817</v>
+        <v>12386.92018181813</v>
       </c>
       <c r="J4" t="n">
         <v>12386.92018181813</v>
@@ -26447,10 +26447,10 @@
         <v>12386.92018181813</v>
       </c>
       <c r="L4" t="n">
-        <v>12386.92018181808</v>
+        <v>12386.92018181813</v>
       </c>
       <c r="M4" t="n">
-        <v>12386.92018181807</v>
+        <v>12386.92018181819</v>
       </c>
       <c r="N4" t="n">
         <v>12386.92018181813</v>
@@ -26478,10 +26478,10 @@
         <v>107933.9405613933</v>
       </c>
       <c r="E5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="F5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="G5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-707210.8713778721</v>
+        <v>-707210.8713778724</v>
       </c>
       <c r="C6" t="n">
         <v>621533.8743497204</v>
       </c>
       <c r="D6" t="n">
-        <v>621533.8743497205</v>
+        <v>621533.8743497207</v>
       </c>
       <c r="E6" t="n">
-        <v>367877.3086225691</v>
+        <v>368189.94995149</v>
       </c>
       <c r="F6" t="n">
-        <v>693289.7704299238</v>
+        <v>693602.4117588449</v>
       </c>
       <c r="G6" t="n">
-        <v>693289.7704299237</v>
+        <v>693602.411758846</v>
       </c>
       <c r="H6" t="n">
-        <v>693289.7704299238</v>
+        <v>693602.4117588456</v>
       </c>
       <c r="I6" t="n">
-        <v>693289.7704299237</v>
+        <v>693602.4117588453</v>
       </c>
       <c r="J6" t="n">
-        <v>475758.5680326465</v>
+        <v>476071.2093615681</v>
       </c>
       <c r="K6" t="n">
-        <v>693289.7704299241</v>
+        <v>693602.4117588456</v>
       </c>
       <c r="L6" t="n">
-        <v>693289.7704299244</v>
+        <v>693602.4117588454</v>
       </c>
       <c r="M6" t="n">
-        <v>608234.7424944125</v>
+        <v>608547.3838233332</v>
       </c>
       <c r="N6" t="n">
-        <v>693289.7704299241</v>
+        <v>693602.4117588454</v>
       </c>
       <c r="O6" t="n">
-        <v>693289.7704299244</v>
+        <v>693602.4117588456</v>
       </c>
       <c r="P6" t="n">
-        <v>693289.7704299242</v>
+        <v>693602.4117588457</v>
       </c>
     </row>
   </sheetData>
@@ -26694,19 +26694,19 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26746,10 +26746,10 @@
         <v>1089.776700593298</v>
       </c>
       <c r="E3" t="n">
-        <v>1367.975500341673</v>
+        <v>1367.975500341674</v>
       </c>
       <c r="F3" t="n">
-        <v>1367.975500341673</v>
+        <v>1367.975500341674</v>
       </c>
       <c r="G3" t="n">
         <v>1367.975500341674</v>
@@ -26789,19 +26789,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099647</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099648</v>
@@ -26813,16 +26813,16 @@
         <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
         <v>1172.708288099648</v>
@@ -26916,7 +26916,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26968,19 +26968,19 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483748</v>
+        <v>278.1987997483759</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="G3" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973546</v>
+        <v>341.3068326973561</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27029,13 +27029,13 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973546</v>
+        <v>341.3068326973558</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27153,7 +27153,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973546</v>
+        <v>341.3068326973561</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27275,7 +27275,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -27378,28 +27378,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>261.9597511231269</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27438,13 +27438,13 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>265.8801721341064</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27536,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27554,7 +27554,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
         <v>96.35242040983809</v>
@@ -27587,19 +27587,19 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>160.324779930026</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>75.90496054965092</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -27618,7 +27618,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -27630,10 +27630,10 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>12.6693250350836</v>
       </c>
       <c r="H5" t="n">
-        <v>21.55480923450909</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
         <v>41.57692977292595</v>
@@ -27672,7 +27672,7 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -27788,13 +27788,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>20.21463772035904</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27824,13 +27824,13 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>20.12424525602592</v>
       </c>
       <c r="T7" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -27867,10 +27867,10 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>41.57692977292595</v>
@@ -27903,7 +27903,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>203.9179701396201</v>
@@ -27912,13 +27912,13 @@
         <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>108.8774149194503</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>235.6797139073997</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28019,13 +28019,13 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>94.35543628911111</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
@@ -28064,10 +28064,10 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>142.2354048423647</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -28089,25 +28089,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>-1.381944293416971e-12</v>
       </c>
       <c r="D11" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="F11" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -28140,22 +28140,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>2.185668657555903e-12</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -28247,76 +28247,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -28341,10 +28341,10 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>-9.110945740497643e-13</v>
       </c>
       <c r="H14" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -28377,7 +28377,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>3.637978807091713e-12</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -28389,13 +28389,13 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -28484,76 +28484,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -28569,7 +28569,7 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>2.273736754432321e-12</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -28721,76 +28721,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -28958,76 +28958,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -29195,76 +29195,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -29988,7 +29988,7 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -30039,7 +30039,7 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>-9.604209407957034e-13</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348431</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135338</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J11" t="n">
-        <v>466.754615566328</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817572</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162557</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M11" t="n">
-        <v>965.646344017567</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159421</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460023</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236504</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669219</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043724</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078743</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,34 +31831,34 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659448</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521099</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420753</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422583</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L12" t="n">
-        <v>638.883274947307</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M12" t="n">
-        <v>575.5951359912058</v>
+        <v>573.8098963904285</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071781</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O12" t="n">
         <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214695</v>
+        <v>561.87657862147</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
@@ -31867,13 +31867,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742436</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275953</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189902</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121569</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869271</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J13" t="n">
-        <v>174.405663379626</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355176</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588151</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392043</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106786</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920055</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417313</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515926</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
-        <v>110.9181446670477</v>
+        <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532764</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348431</v>
+        <v>5.499398996348436</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135338</v>
+        <v>56.32071997135343</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J14" t="n">
-        <v>466.754615566328</v>
+        <v>466.7546155663285</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817572</v>
+        <v>699.5441750817579</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162557</v>
+        <v>867.8464071162565</v>
       </c>
       <c r="M14" t="n">
-        <v>965.646344017567</v>
+        <v>965.646344017568</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159421</v>
+        <v>981.2715114159431</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460023</v>
+        <v>926.5868626460033</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236504</v>
+        <v>790.8204499236512</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669219</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043724</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651529</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078743</v>
+        <v>0.4399519197078748</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659448</v>
+        <v>2.942437868659451</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521099</v>
+        <v>28.41775520521102</v>
       </c>
       <c r="I15" t="n">
-        <v>101.3076196007749</v>
+        <v>101.307619600775</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420753</v>
+        <v>277.9958514420756</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422583</v>
+        <v>144.2373595085321</v>
       </c>
       <c r="L15" t="n">
-        <v>638.883274947307</v>
+        <v>638.8832749473075</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862117</v>
+        <v>745.5466476862125</v>
       </c>
       <c r="N15" t="n">
         <v>131.3417120833333</v>
       </c>
       <c r="O15" t="n">
-        <v>369.1789913100011</v>
+        <v>700.0808204437246</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214695</v>
+        <v>561.8765786214701</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.5996128485289</v>
+        <v>375.5996128485292</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742436</v>
+        <v>54.65449286742441</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275953</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189902</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121569</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869271</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J16" t="n">
-        <v>174.405663379626</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355176</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588151</v>
+        <v>366.7519890588155</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392043</v>
+        <v>386.6885500392047</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106786</v>
+        <v>377.493960610679</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920055</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417313</v>
+        <v>298.3532140417316</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515926</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
-        <v>110.9181446670477</v>
+        <v>110.9181446670479</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532764</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T16" t="n">
-        <v>10.54013910099322</v>
+        <v>10.54013910099323</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,37 +32226,37 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
         <v>345.4516222043725</v>
@@ -32265,10 +32265,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32314,22 +32314,22 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>463.9598929192562</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437242</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32341,10 +32341,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
         <v>0.1935814387275954</v>
@@ -32390,28 +32390,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P19" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
         <v>206.5643005515927</v>
@@ -32420,7 +32420,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
@@ -32463,37 +32463,37 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
         <v>345.4516222043725</v>
@@ -32502,10 +32502,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32551,22 +32551,22 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>398.7616643558023</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -32578,10 +32578,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
         <v>0.1935814387275954</v>
@@ -32627,28 +32627,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P22" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
         <v>206.5643005515927</v>
@@ -32657,7 +32657,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32712,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,10 +32779,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
@@ -32794,16 +32794,16 @@
         <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
         <v>171.7382405950817</v>
@@ -32815,13 +32815,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32949,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33016,10 +33016,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
         <v>101.3076196007749</v>
@@ -33028,16 +33028,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
         <v>398.7616643558013</v>
@@ -33052,13 +33052,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33125,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,43 +33174,43 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J29" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33253,10 +33253,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
         <v>101.3076196007749</v>
@@ -33265,37 +33265,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>357.9244589488883</v>
+        <v>357.9244589488886</v>
       </c>
       <c r="O30" t="n">
         <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33362,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33423,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33490,10 +33490,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
         <v>101.3076196007749</v>
@@ -33502,16 +33502,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
         <v>398.7616643558013</v>
@@ -33526,13 +33526,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33599,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33660,31 +33660,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33727,10 +33727,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
         <v>101.3076196007749</v>
@@ -33742,34 +33742,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>209.9499448422525</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>211.3773391483997</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33836,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,43 +33885,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817562</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33964,10 +33964,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
         <v>99.52238</v>
@@ -33976,16 +33976,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
         <v>400.5469039565762</v>
@@ -34000,13 +34000,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34073,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,43 +34122,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34201,10 +34201,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
         <v>99.52238</v>
@@ -34216,16 +34216,16 @@
         <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
         <v>171.7382405950817</v>
@@ -34237,13 +34237,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34310,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,43 +34359,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34438,10 +34438,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
         <v>101.3076196007749</v>
@@ -34450,19 +34450,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862122</v>
+        <v>444.2274915982894</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -34474,13 +34474,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34547,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317142</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396417</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367767</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462685</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902943</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193511</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243155</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683809</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924724</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902402</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,28 +35485,28 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754086</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678993</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674328</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M12" t="n">
-        <v>433.4611020691875</v>
+        <v>431.6758624684103</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238448</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071393</v>
+        <v>427.9021712071398</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35567,25 +35567,25 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.0464832629534</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q13" t="n">
         <v>120.4022572998984</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317142</v>
+        <v>1.539690236317369</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396417</v>
+        <v>285.7087110396422</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367767</v>
+        <v>479.4543240367773</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462685</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902943</v>
+        <v>735.3001107902953</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193511</v>
+        <v>751.8584478193523</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243155</v>
+        <v>696.4886512243165</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683809</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924724</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902402</v>
+        <v>129.8660843902406</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,31 +35722,31 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774858</v>
+        <v>1.785239600774958</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754086</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678993</v>
+        <v>6.3959205341731</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674328</v>
+        <v>500.3288951674334</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641933</v>
+        <v>603.4126137641942</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>226.5827468655567</v>
+        <v>557.4845759992802</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071393</v>
+        <v>427.9021712071399</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625073</v>
+        <v>235.6178387625077</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,25 +35804,25 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.0464832629534</v>
+        <v>81.04648326295347</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191316</v>
       </c>
       <c r="M16" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010453</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060456</v>
       </c>
       <c r="P16" t="n">
-        <v>295.6317733066249</v>
+        <v>295.6317733066251</v>
       </c>
       <c r="Q16" t="n">
         <v>120.4022572998984</v>
@@ -35880,31 +35880,31 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
         <v>129.8660843902404</v>
@@ -35959,25 +35959,25 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774901</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674329</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>332.6181808359229</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992797</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36041,19 +36041,19 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295346</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
         <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
         <v>373.2618997060454</v>
@@ -36062,7 +36062,7 @@
         <v>295.631773306625</v>
       </c>
       <c r="Q19" t="n">
-        <v>120.4022572998985</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36117,31 +36117,31 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J20" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
         <v>129.8660843902404</v>
@@ -36196,25 +36196,25 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774901</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674329</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>256.1654199113578</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36278,19 +36278,19 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295346</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
         <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
         <v>373.2618997060454</v>
@@ -36299,7 +36299,7 @@
         <v>295.631773306625</v>
       </c>
       <c r="Q22" t="n">
-        <v>120.4022572998985</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36442,16 +36442,16 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
         <v>37.7638331807514</v>
@@ -36515,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295354</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096352</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191316</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010453</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
-        <v>421.6261329899076</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060456</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
-        <v>295.6317733066251</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q25" t="n">
-        <v>120.4022572998985</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36679,13 +36679,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
         <v>256.1654199113569</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36916,22 +36916,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>226.582746865555</v>
+        <v>226.5827468655553</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37153,13 +37153,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
         <v>256.1654199113569</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37390,25 +37390,25 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>71.39556506237828</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>71.39556506237817</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367756</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37627,13 +37627,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
         <v>257.9506595121318</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37864,16 +37864,16 @@
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
         <v>37.7638331807514</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38101,16 +38101,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>302.093457676271</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
